--- a/Data/chapter11.xlsx
+++ b/Data/chapter11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="677" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
